--- a/Models/New_Testing/New_Dataset_Graded.xlsx
+++ b/Models/New_Testing/New_Dataset_Graded.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>7.92871553463349</v>
@@ -517,13 +517,13 @@
         <v>6.580460338891228</v>
       </c>
       <c r="I2" t="n">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>5.903011790184811</v>
@@ -558,13 +558,13 @@
         <v>5.158648078078946</v>
       </c>
       <c r="I3" t="n">
-        <v>9.09090909090909</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.9090909090909092</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>7.433752816398306</v>
@@ -599,13 +599,13 @@
         <v>6.220558775842497</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>5.428902802569702</v>
@@ -640,13 +640,13 @@
         <v>4.514964207347848</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>8.288505051148858</v>
@@ -681,13 +681,13 @@
         <v>6.202614033585738</v>
       </c>
       <c r="I6" t="n">
-        <v>7.142857142857143</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="J6" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.285714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -722,13 +722,13 @@
         <v>7.097487400857196</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -769,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
         <v>5.285419995655925</v>
       </c>
       <c r="I9" t="n">
-        <v>6.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>4.866565689762655</v>
       </c>
       <c r="I10" t="n">
-        <v>8.888888888888889</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="J10" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.444444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -886,13 +886,13 @@
         <v>5.661345040016968</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>8.309525107682243</v>
@@ -927,13 +927,13 @@
         <v>7.344496449601404</v>
       </c>
       <c r="I12" t="n">
-        <v>9.09090909090909</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="J12" t="n">
-        <v>3.636363636363637</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="K12" t="n">
-        <v>7.272727272727273</v>
+        <v>0.9090909090909092</v>
       </c>
     </row>
     <row r="13">
@@ -968,13 +968,13 @@
         <v>4.268210958358074</v>
       </c>
       <c r="I13" t="n">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1009,7 +1009,7 @@
         <v>1.239056119408414</v>
       </c>
       <c r="I14" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>9.01029748283753</v>
@@ -1050,10 +1050,10 @@
         <v>6.144241284632908</v>
       </c>
       <c r="I15" t="n">
-        <v>7.777777777777778</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>4.444444444444445</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="K15" t="n">
         <v>3.333333333333333</v>
@@ -1091,13 +1091,13 @@
         <v>2.850477688541242</v>
       </c>
       <c r="I16" t="n">
-        <v>4.444444444444445</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="J16" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1132,7 +1132,7 @@
         <v>6.733800774075254</v>
       </c>
       <c r="I17" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1173,13 +1173,13 @@
         <v>6.607434048519218</v>
       </c>
       <c r="I18" t="n">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>6.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
         <v>6.135022042890233</v>
@@ -1214,13 +1214,13 @@
         <v>5.23948330233973</v>
       </c>
       <c r="I19" t="n">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1258,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="21">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>7.314282574050668</v>
@@ -1296,13 +1296,13 @@
         <v>6.515298306744523</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>5.746491124742893</v>
@@ -1337,13 +1337,13 @@
         <v>5.306482673479148</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
         <v>7.923133305714013</v>
@@ -1378,13 +1378,13 @@
         <v>6.875113784573599</v>
       </c>
       <c r="I23" t="n">
-        <v>7.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.285714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>8.315631353746246</v>
@@ -1419,13 +1419,13 @@
         <v>6.636955879313321</v>
       </c>
       <c r="I24" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="25">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
         <v>8.210353032315181</v>
@@ -1460,13 +1460,13 @@
         <v>7.599888650727777</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
         <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1501,13 +1501,13 @@
         <v>5.987356583749563</v>
       </c>
       <c r="I26" t="n">
-        <v>5.833333333333334</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1542,13 +1542,13 @@
         <v>2.701108356835203</v>
       </c>
       <c r="I27" t="n">
-        <v>8.888888888888889</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="J27" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1583,13 +1583,13 @@
         <v>8.260016583019878</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="J28" t="n">
-        <v>8.75</v>
+        <v>6.25</v>
       </c>
       <c r="K28" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1624,13 +1624,13 @@
         <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="J29" t="n">
         <v>9.09090909090909</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="30">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>6.507626281960872</v>
@@ -1665,13 +1665,13 @@
         <v>5.795687375322824</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>8.356265495770007</v>
@@ -1706,13 +1706,13 @@
         <v>7.034010145975221</v>
       </c>
       <c r="I31" t="n">
-        <v>8.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1747,13 +1747,13 @@
         <v>6.114355182378421</v>
       </c>
       <c r="I32" t="n">
-        <v>5.555555555555555</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="J32" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1788,13 +1788,13 @@
         <v>6.151598112907721</v>
       </c>
       <c r="I33" t="n">
-        <v>4.444444444444445</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1829,13 +1829,13 @@
         <v>9.792721510093072</v>
       </c>
       <c r="I34" t="n">
-        <v>9.333333333333334</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="J34" t="n">
-        <v>9.333333333333334</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>8.666666666666668</v>
       </c>
     </row>
     <row r="35">
@@ -1870,7 +1870,7 @@
         <v>3.269518836797841</v>
       </c>
       <c r="I35" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1911,13 +1911,13 @@
         <v>2.943979008113821</v>
       </c>
       <c r="I36" t="n">
-        <v>4.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1952,13 +1952,13 @@
         <v>7.710609572745388</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J37" t="n">
-        <v>8.571428571428571</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="K37" t="n">
-        <v>8.571428571428571</v>
+        <v>5.714285714285714</v>
       </c>
     </row>
     <row r="38">
@@ -1993,13 +1993,13 @@
         <v>7.831309059936698</v>
       </c>
       <c r="I38" t="n">
-        <v>9.09090909090909</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="J38" t="n">
-        <v>6.363636363636363</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="K38" t="n">
-        <v>5.454545454545454</v>
+        <v>2.727272727272727</v>
       </c>
     </row>
     <row r="39">
@@ -2034,7 +2034,7 @@
         <v>3.680407313339602</v>
       </c>
       <c r="I39" t="n">
-        <v>2.727272727272727</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>4.374019804653929</v>
       </c>
       <c r="I40" t="n">
-        <v>6.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>2.566032496225034</v>
       </c>
       <c r="I41" t="n">
-        <v>4.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
         <v>7.635042544376812</v>
@@ -2157,13 +2157,13 @@
         <v>6.275859031019639</v>
       </c>
       <c r="I42" t="n">
-        <v>5.714285714285714</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="J42" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>4.285714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2201,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" t="n">
         <v>10</v>
@@ -2239,13 +2239,13 @@
         <v>6.561151090757035</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>5.453469097797775</v>
@@ -2280,10 +2280,10 @@
         <v>5.208424669535288</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>2.915035443707295</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" t="n">
         <v>7.224601523201551</v>
@@ -2403,13 +2403,13 @@
         <v>6.590711819897665</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="J48" t="n">
-        <v>8.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>6.666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
         <v>9.536878042867823</v>
@@ -2447,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>8.333333333333334</v>
       </c>
     </row>
     <row r="50">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
         <v>4.107088745681905</v>
@@ -2485,13 +2485,13 @@
         <v>3.550449606293125</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>6.666666666666666</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="K50" t="n">
-        <v>3.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="51">
@@ -2526,13 +2526,13 @@
         <v>9.248438777042361</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="J51" t="n">
         <v>8.333333333333334</v>
       </c>
       <c r="K51" t="n">
-        <v>9.166666666666666</v>
+        <v>8.333333333333334</v>
       </c>
     </row>
     <row r="52">
@@ -2570,10 +2570,10 @@
         <v>10</v>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -2608,13 +2608,13 @@
         <v>5.810802980402615</v>
       </c>
       <c r="I53" t="n">
-        <v>7.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J53" t="n">
-        <v>3.333333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="K53" t="n">
-        <v>3.333333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" t="n">
         <v>8.466909104577187</v>
@@ -2649,10 +2649,10 @@
         <v>7.91444149147304</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="J54" t="n">
-        <v>9.166666666666666</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="K54" t="n">
         <v>8.333333333333334</v>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
         <v>7.235858094509592</v>
@@ -2690,13 +2690,13 @@
         <v>7.067368191457985</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="J55" t="n">
-        <v>5.714285714285714</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="K55" t="n">
-        <v>4.285714285714286</v>
+        <v>1.428571428571428</v>
       </c>
     </row>
     <row r="56">
@@ -2731,13 +2731,13 @@
         <v>9.523924958282731</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J56" t="n">
-        <v>10</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="K56" t="n">
-        <v>8.571428571428571</v>
+        <v>7.142857142857143</v>
       </c>
     </row>
     <row r="57">
@@ -2772,13 +2772,13 @@
         <v>2.065462358340608</v>
       </c>
       <c r="I57" t="n">
-        <v>7.142857142857143</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="J57" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1.428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2813,13 +2813,13 @@
         <v>1.223745935323066</v>
       </c>
       <c r="I58" t="n">
-        <v>5.714285714285714</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="J58" t="n">
-        <v>1.428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1.428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2854,13 +2854,13 @@
         <v>6.529114615346469</v>
       </c>
       <c r="I59" t="n">
-        <v>7.5</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="J59" t="n">
-        <v>6.666666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K59" t="n">
-        <v>5.833333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="J60" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="K60" t="n">
         <v>9.166666666666666</v>
@@ -2936,13 +2936,13 @@
         <v>8.18940566797388</v>
       </c>
       <c r="I61" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J61" t="n">
         <v>7.5</v>
       </c>
       <c r="K61" t="n">
-        <v>8.333333333333334</v>
+        <v>6.666666666666666</v>
       </c>
     </row>
     <row r="62">
@@ -3018,10 +3018,10 @@
         <v>5.057865589170402</v>
       </c>
       <c r="I63" t="n">
-        <v>6.666666666666666</v>
+        <v>2.5</v>
       </c>
       <c r="J63" t="n">
-        <v>3.333333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="K63" t="n">
         <v>0.8333333333333333</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
         <v>8.160781861160279</v>
@@ -3059,13 +3059,13 @@
         <v>6.935354766615646</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J64" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="65">
@@ -3100,13 +3100,13 @@
         <v>7.488278499092905</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="J65" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="K65" t="n">
-        <v>8.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="n">
         <v>8.035277032828413</v>
@@ -3144,10 +3144,10 @@
         <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>6.25</v>
       </c>
       <c r="K66" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="67">
@@ -3182,13 +3182,13 @@
         <v>6.548849110704177</v>
       </c>
       <c r="I67" t="n">
-        <v>8.75</v>
+        <v>6.25</v>
       </c>
       <c r="J67" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="68">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
         <v>7.388843420202455</v>
@@ -3264,13 +3264,13 @@
         <v>6.144477929376241</v>
       </c>
       <c r="I69" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J69" t="n">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="K69" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="70">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
         <v>8.55998276976093</v>
@@ -3305,13 +3305,13 @@
         <v>7.033762189368638</v>
       </c>
       <c r="I70" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J70" t="n">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="K70" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="71">
@@ -3346,13 +3346,13 @@
         <v>6.384947607619056</v>
       </c>
       <c r="I71" t="n">
-        <v>10</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="J71" t="n">
-        <v>8.571428571428571</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="K71" t="n">
-        <v>7.142857142857143</v>
+        <v>1.428571428571428</v>
       </c>
     </row>
     <row r="72">
@@ -3387,13 +3387,13 @@
         <v>7.613826863586705</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="J72" t="n">
-        <v>7.142857142857143</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="K72" t="n">
-        <v>7.142857142857143</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="73">
@@ -3428,13 +3428,13 @@
         <v>6.302923076145102</v>
       </c>
       <c r="I73" t="n">
-        <v>10</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J73" t="n">
-        <v>8.571428571428571</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="K73" t="n">
-        <v>7.142857142857143</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="74">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G74" t="n">
         <v>7.25221610353193</v>
@@ -3469,13 +3469,13 @@
         <v>6.917362704128927</v>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="J74" t="n">
-        <v>7.142857142857143</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="K74" t="n">
-        <v>7.142857142857143</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="75">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
         <v>6.557544168934196</v>
@@ -3510,13 +3510,13 @@
         <v>6.042931622156279</v>
       </c>
       <c r="I75" t="n">
-        <v>9.166666666666666</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
         <v>6.843751197639211</v>
@@ -3551,13 +3551,13 @@
         <v>6.611465397611886</v>
       </c>
       <c r="I76" t="n">
-        <v>10</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="J76" t="n">
-        <v>7.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="K76" t="n">
-        <v>5.833333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3592,10 +3592,10 @@
         <v>6.525867898193858</v>
       </c>
       <c r="I77" t="n">
-        <v>8.333333333333334</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="J77" t="n">
-        <v>6.666666666666666</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
         <v>5.833333333333334</v>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G78" t="n">
         <v>6.446863143371784</v>
@@ -3633,13 +3633,13 @@
         <v>5.720181750402563</v>
       </c>
       <c r="I78" t="n">
-        <v>8.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>6.666666666666666</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="79">
@@ -3674,10 +3674,10 @@
         <v>9.677046595856694</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="K79" t="n">
         <v>10</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" t="n">
         <v>9.801264925576577</v>
@@ -3715,7 +3715,7 @@
         <v>9.668062056200176</v>
       </c>
       <c r="I80" t="n">
-        <v>10</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="J80" t="n">
         <v>8.181818181818182</v>
@@ -3756,13 +3756,13 @@
         <v>7.50586488917826</v>
       </c>
       <c r="I81" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="J81" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="K81" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
